--- a/medicine/Médecine vétérinaire/Anglaisage/Anglaisage.xlsx
+++ b/medicine/Médecine vétérinaire/Anglaisage/Anglaisage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anglaisage, appelé aussi niquetage, est une mutilation consistant à inciser ou à enlever les muscles coccygiens abaisseurs de la queue d'un cheval, la forçant ainsi à se relever. Devenu une pratique d'élevage de plus en plus contestée depuis la seconde moitié du XXe siècle, cette opération est dorénavant interdite en Europe (mais toujours pratiquée aux États-Unis pour des races spécifiques comme le Tennessee Walker)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anglaisage, appelé aussi niquetage, est une mutilation consistant à inciser ou à enlever les muscles coccygiens abaisseurs de la queue d'un cheval, la forçant ainsi à se relever. Devenu une pratique d'élevage de plus en plus contestée depuis la seconde moitié du XXe siècle, cette opération est dorénavant interdite en Europe (mais toujours pratiquée aux États-Unis pour des races spécifiques comme le Tennessee Walker),.
 	Divers dessins relatifs à l'anglaisage :
 			Incision de la queue (1841).
 			Autre méthode pour relever la queue (1782).
